--- a/flatten.xlsx
+++ b/flatten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E649"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11277,11 +11277,11 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>0.8351084082496033</v>
+        <v>0.8877789529349551</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11302,11 +11302,11 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0.7510101010101009</v>
+        <v>0.5694261294261295</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11327,11 +11327,11 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0.8351084082496033</v>
+        <v>0.8877789529349551</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11352,11 +11352,11 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0.8020200951877314</v>
+        <v>0.8628873611845584</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11377,11 +11377,11 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0.6108369408369408</v>
+        <v>0.5362082362082362</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11402,11 +11402,11 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0.8020200951877314</v>
+        <v>0.8628873611845587</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11427,11 +11427,11 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0.7351084082496033</v>
+        <v>0.6167477525118985</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11452,11 +11452,11 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0.5461038961038962</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11477,11 +11477,11 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0.7351084082496033</v>
+        <v>0.6167477525118985</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11502,11 +11502,11 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>0.7956521739130435</v>
+        <v>0.8947641073080481</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11527,11 +11527,11 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0.6866666666666668</v>
+        <v>0.6435897435897435</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11552,11 +11552,11 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0.7956521739130435</v>
+        <v>0.8947641073080481</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0.8383533765032377</v>
+        <v>0.866022201665125</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11602,11 +11602,11 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0.6775757575757575</v>
+        <v>0.5938375350140056</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11627,11 +11627,11 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0.8383533765032377</v>
+        <v>0.866022201665125</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11652,11 +11652,11 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0.6424976873265494</v>
+        <v>0.6134782608695651</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11677,11 +11677,11 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0.3151022110972048</v>
+        <v>0.3380952380952381</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11702,11 +11702,11 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0.6424976873265494</v>
+        <v>0.6134782608695651</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11727,11 +11727,11 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0.8534389140271493</v>
+        <v>0.9029769984917042</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11752,11 +11752,11 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0.7909544087519615</v>
+        <v>0.7850902440376126</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11777,11 +11777,11 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0.8534389140271493</v>
+        <v>0.9029769984917042</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11802,11 +11802,11 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0.8375245098039216</v>
+        <v>0.8902262443438914</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11827,11 +11827,11 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0.749508033379001</v>
+        <v>0.7887361992013154</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11852,11 +11852,11 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>0.8375245098039216</v>
+        <v>0.8902262443438914</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11877,11 +11877,11 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>0.7053487933634992</v>
+        <v>0.8566251885369531</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11902,11 +11902,11 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>0.5251793224539474</v>
+        <v>0.7230345629504116</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11927,11 +11927,11 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0.7053487933634992</v>
+        <v>0.8566251885369531</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11952,11 +11952,11 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0.8720095693779903</v>
+        <v>0.9119947596263387</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>0.827953216374269</v>
+        <v>0.8002104562104563</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12002,11 +12002,11 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0.8720095693779903</v>
+        <v>0.9119947596263387</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12027,11 +12027,11 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0.8346907040328093</v>
+        <v>0.8838619275461381</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12052,11 +12052,11 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0.7042386598908338</v>
+        <v>0.7008575077540595</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12077,11 +12077,11 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0.8346907040328093</v>
+        <v>0.8838619275461381</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12102,11 +12102,11 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0.6020989974937343</v>
+        <v>0.6859478241057189</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12127,11 +12127,11 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0.3195231681129432</v>
+        <v>0.3741494637296736</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12152,11 +12152,11 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0.6020989974937343</v>
+        <v>0.685947824105719</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12177,11 +12177,11 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0.763095238095238</v>
+        <v>0.893423106947697</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12202,11 +12202,11 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0.635042735042735</v>
+        <v>0.5749554655870445</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12227,11 +12227,11 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0.763095238095238</v>
+        <v>0.893423106947697</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12252,11 +12252,11 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0.7223341139734583</v>
+        <v>0.8665183450429353</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12277,11 +12277,11 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12302,11 +12302,11 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>0.7223341139734583</v>
+        <v>0.8665183450429353</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12327,11 +12327,11 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0.8352537080405933</v>
+        <v>0.8031498829039811</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12352,11 +12352,11 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0.4480575888526325</v>
+        <v>0.4546953131621324</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12377,11 +12377,11 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0.8352537080405933</v>
+        <v>0.8031498829039811</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12402,11 +12402,11 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.7483974358974359</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12427,11 +12427,11 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>0.2975851393188855</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12452,11 +12452,11 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.7483974358974359</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12477,11 +12477,11 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0.5759615384615384</v>
+        <v>0.7377564102564103</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12502,11 +12502,11 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0.2404761904761905</v>
+        <v>0.3019047619047619</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12527,11 +12527,11 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0.5759615384615384</v>
+        <v>0.7377564102564103</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12552,11 +12552,11 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0.5905769230769231</v>
+        <v>0.6412820512820513</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12577,11 +12577,11 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0.182568356374808</v>
+        <v>0.2048011900347829</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12602,11 +12602,11 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0.5905769230769231</v>
+        <v>0.6412820512820513</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12627,11 +12627,11 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0.8783963361442281</v>
+        <v>0.8993224774643791</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12652,11 +12652,11 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0.8164526701368807</v>
+        <v>0.7329331831406629</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12677,11 +12677,11 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0.8783963361442281</v>
+        <v>0.8993224774643792</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12702,11 +12702,11 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0.8504521663274207</v>
+        <v>0.915220994475138</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12727,11 +12727,11 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0.714712785307751</v>
+        <v>0.6914386093420418</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12752,11 +12752,11 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0.8504521663274207</v>
+        <v>0.9152209944751382</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12777,11 +12777,11 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0.5403038674033149</v>
+        <v>0.89792817679558</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12802,11 +12802,11 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0.1921896885939601</v>
+        <v>0.7264713064713064</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12827,11 +12827,11 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>0.5403038674033149</v>
+        <v>0.89792817679558</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12852,11 +12852,11 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0.5867152412804587</v>
+        <v>0.7505924510272337</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12877,11 +12877,11 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0.2836163836163836</v>
+        <v>0.3673475415679984</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12902,11 +12902,11 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0.5867152412804587</v>
+        <v>0.7505924510272337</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12927,11 +12927,11 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0.6815981844242713</v>
+        <v>0.7140707118967988</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12952,11 +12952,11 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0.4142857142857143</v>
+        <v>0.3368155249006313</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -12977,11 +12977,11 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0.6815981844242713</v>
+        <v>0.7140707118967988</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13002,11 +13002,11 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0.5438724319159102</v>
+        <v>0.6156163401815575</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13027,11 +13027,11 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0.1938910065123657</v>
+        <v>0.355044955044955</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13052,11 +13052,11 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>0.5438724319159102</v>
+        <v>0.6156163401815575</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13077,11 +13077,11 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0.6429625199362042</v>
+        <v>0.8042852870813396</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13102,11 +13102,11 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>0.3851548451548451</v>
+        <v>0.4749908853134659</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13127,11 +13127,11 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>0.6429625199362042</v>
+        <v>0.8042852870813396</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13152,11 +13152,11 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0.6457844896331738</v>
+        <v>0.7891427432216906</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13177,11 +13177,11 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0.323613478139794</v>
+        <v>0.4266399994674169</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13202,11 +13202,11 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0.6457844896331738</v>
+        <v>0.7891427432216906</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13227,11 +13227,11 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0.4987490031897927</v>
+        <v>0.6723744019138757</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13252,11 +13252,11 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0.175054083177653</v>
+        <v>0.289230115296743</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13277,11 +13277,11 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0.4987490031897927</v>
+        <v>0.6723744019138757</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13302,11 +13302,11 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>0.5573438756365585</v>
+        <v>0.849608683998928</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13327,11 +13327,11 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0.1784965034965035</v>
+        <v>0.2679978036240204</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13352,11 +13352,11 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>0.5573438756365585</v>
+        <v>0.849608683998928</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13377,11 +13377,11 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0.6438741746058819</v>
+        <v>0.8414768158670597</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13402,11 +13402,11 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0.2984010971413555</v>
+        <v>0.2371135863358766</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13427,11 +13427,11 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0.6438741746058819</v>
+        <v>0.8414768158670597</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13452,11 +13452,11 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0.5437133598109207</v>
+        <v>0.7012370556272995</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13477,11 +13477,11 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0.07261040503988239</v>
+        <v>0.2086099428731033</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13502,11 +13502,11 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0.5437133598109207</v>
+        <v>0.7012370556272995</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13527,11 +13527,11 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>0.7909722222222222</v>
+        <v>0.959375</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13552,11 +13552,11 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>0.6684845598158292</v>
+        <v>0.5132715603303838</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13577,11 +13577,11 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0.7909722222222222</v>
+        <v>0.959375</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13602,11 +13602,11 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>0.8427083333333334</v>
+        <v>0.9635416666666666</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13627,11 +13627,11 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>0.6606778931721723</v>
+        <v>0.5534313725490196</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13652,11 +13652,11 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>0.8427083333333334</v>
+        <v>0.9635416666666666</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13677,11 +13677,11 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0.8041666666666666</v>
+        <v>0.929861111111111</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13702,11 +13702,11 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0.1369029524139813</v>
+        <v>0.3256544689569666</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13727,11 +13727,11 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>0.8041666666666666</v>
+        <v>0.929861111111111</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13752,11 +13752,11 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>0.6839877614331737</v>
+        <v>0.8768162680893858</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13777,11 +13777,11 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>0.4605128205128206</v>
+        <v>0.2808458208458208</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13802,11 +13802,11 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>0.6839877614331736</v>
+        <v>0.8768162680893858</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13827,11 +13827,11 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0.7157972966062692</v>
+        <v>0.8502323282254078</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13852,11 +13852,11 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>0.3899416355170831</v>
+        <v>0.2063312669274394</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13877,11 +13877,11 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>0.7157972966062693</v>
+        <v>0.8502323282254078</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13902,11 +13902,11 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>0.6373380264884858</v>
+        <v>0.8756991153459355</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13927,11 +13927,11 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>0.06302570309108904</v>
+        <v>0.2132124916426483</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>umce</t>
         </is>
       </c>
     </row>
@@ -13952,2709 +13952,9 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>0.6373380264884858</v>
+        <v>0.8756991153459355</v>
       </c>
       <c r="E541" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D542" t="n">
-        <v>0.8877789529349551</v>
-      </c>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D543" t="n">
-        <v>0.5694261294261295</v>
-      </c>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D544" t="n">
-        <v>0.8877789529349551</v>
-      </c>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D545" t="n">
-        <v>0.8628873611845584</v>
-      </c>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D546" t="n">
-        <v>0.5362082362082362</v>
-      </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D547" t="n">
-        <v>0.8628873611845587</v>
-      </c>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D548" t="n">
-        <v>0.6167477525118985</v>
-      </c>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D549" t="n">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>ecoli-0-1-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D550" t="n">
-        <v>0.6167477525118985</v>
-      </c>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D551" t="n">
-        <v>0.8947641073080481</v>
-      </c>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D552" t="n">
-        <v>0.6435897435897435</v>
-      </c>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D553" t="n">
-        <v>0.8947641073080481</v>
-      </c>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D554" t="n">
-        <v>0.866022201665125</v>
-      </c>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D555" t="n">
-        <v>0.5938375350140056</v>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D556" t="n">
-        <v>0.866022201665125</v>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D557" t="n">
-        <v>0.6134782608695651</v>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D558" t="n">
-        <v>0.3380952380952381</v>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>ecoli-0-3-4-7_vs_5-6</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D559" t="n">
-        <v>0.6134782608695651</v>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D560" t="n">
-        <v>0.9029769984917042</v>
-      </c>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D561" t="n">
-        <v>0.7850902440376126</v>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D562" t="n">
-        <v>0.9029769984917042</v>
-      </c>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D563" t="n">
-        <v>0.8902262443438914</v>
-      </c>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D564" t="n">
-        <v>0.7887361992013154</v>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D565" t="n">
-        <v>0.8902262443438914</v>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D566" t="n">
-        <v>0.8566251885369531</v>
-      </c>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D567" t="n">
-        <v>0.7230345629504116</v>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>ecoli1</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D568" t="n">
-        <v>0.8566251885369531</v>
-      </c>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D569" t="n">
-        <v>0.9119947596263387</v>
-      </c>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D570" t="n">
-        <v>0.8002104562104563</v>
-      </c>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D571" t="n">
-        <v>0.9119947596263387</v>
-      </c>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D572" t="n">
-        <v>0.8838619275461381</v>
-      </c>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D573" t="n">
-        <v>0.7008575077540595</v>
-      </c>
-      <c r="E573" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D574" t="n">
-        <v>0.8838619275461381</v>
-      </c>
-      <c r="E574" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D575" t="n">
-        <v>0.6859478241057189</v>
-      </c>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D576" t="n">
-        <v>0.3741494637296736</v>
-      </c>
-      <c r="E576" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>ecoli2</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D577" t="n">
-        <v>0.685947824105719</v>
-      </c>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D578" t="n">
-        <v>0.893423106947697</v>
-      </c>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D579" t="n">
-        <v>0.5749554655870445</v>
-      </c>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D580" t="n">
-        <v>0.893423106947697</v>
-      </c>
-      <c r="E580" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D581" t="n">
-        <v>0.8665183450429353</v>
-      </c>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D582" t="n">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="E582" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D583" t="n">
-        <v>0.8665183450429353</v>
-      </c>
-      <c r="E583" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D584" t="n">
-        <v>0.8031498829039811</v>
-      </c>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D585" t="n">
-        <v>0.4546953131621324</v>
-      </c>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>ecoli3</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D586" t="n">
-        <v>0.8031498829039811</v>
-      </c>
-      <c r="E586" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D587" t="n">
-        <v>0.7483974358974359</v>
-      </c>
-      <c r="E587" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D588" t="n">
-        <v>0.2975851393188855</v>
-      </c>
-      <c r="E588" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D589" t="n">
-        <v>0.7483974358974359</v>
-      </c>
-      <c r="E589" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D590" t="n">
-        <v>0.7377564102564103</v>
-      </c>
-      <c r="E590" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D591" t="n">
-        <v>0.3019047619047619</v>
-      </c>
-      <c r="E591" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D592" t="n">
-        <v>0.7377564102564103</v>
-      </c>
-      <c r="E592" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D593" t="n">
-        <v>0.6412820512820513</v>
-      </c>
-      <c r="E593" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D594" t="n">
-        <v>0.2048011900347829</v>
-      </c>
-      <c r="E594" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>glass2</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D595" t="n">
-        <v>0.6412820512820513</v>
-      </c>
-      <c r="E595" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D596" t="n">
-        <v>0.8993224774643791</v>
-      </c>
-      <c r="E596" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D597" t="n">
-        <v>0.7329331831406629</v>
-      </c>
-      <c r="E597" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D598" t="n">
-        <v>0.8993224774643792</v>
-      </c>
-      <c r="E598" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D599" t="n">
-        <v>0.915220994475138</v>
-      </c>
-      <c r="E599" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D600" t="n">
-        <v>0.6914386093420418</v>
-      </c>
-      <c r="E600" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D601" t="n">
-        <v>0.9152209944751382</v>
-      </c>
-      <c r="E601" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D602" t="n">
-        <v>0.89792817679558</v>
-      </c>
-      <c r="E602" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D603" t="n">
-        <v>0.7264713064713064</v>
-      </c>
-      <c r="E603" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>yeast-0-2-5-7-9_vs_3-6-8</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D604" t="n">
-        <v>0.89792817679558</v>
-      </c>
-      <c r="E604" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D605" t="n">
-        <v>0.7505924510272337</v>
-      </c>
-      <c r="E605" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D606" t="n">
-        <v>0.3673475415679984</v>
-      </c>
-      <c r="E606" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D607" t="n">
-        <v>0.7505924510272337</v>
-      </c>
-      <c r="E607" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D608" t="n">
-        <v>0.7140707118967988</v>
-      </c>
-      <c r="E608" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D609" t="n">
-        <v>0.3368155249006313</v>
-      </c>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D610" t="n">
-        <v>0.7140707118967988</v>
-      </c>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D611" t="n">
-        <v>0.6156163401815575</v>
-      </c>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D612" t="n">
-        <v>0.355044955044955</v>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>yeast-0-3-5-9_vs_7-8</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D613" t="n">
-        <v>0.6156163401815575</v>
-      </c>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D614" t="n">
-        <v>0.8042852870813396</v>
-      </c>
-      <c r="E614" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D615" t="n">
-        <v>0.4749908853134659</v>
-      </c>
-      <c r="E615" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D616" t="n">
-        <v>0.8042852870813396</v>
-      </c>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D617" t="n">
-        <v>0.7891427432216906</v>
-      </c>
-      <c r="E617" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D618" t="n">
-        <v>0.4266399994674169</v>
-      </c>
-      <c r="E618" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D619" t="n">
-        <v>0.7891427432216906</v>
-      </c>
-      <c r="E619" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D620" t="n">
-        <v>0.6723744019138757</v>
-      </c>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D621" t="n">
-        <v>0.289230115296743</v>
-      </c>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>yeast-0-5-6-7-9_vs_4</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D622" t="n">
-        <v>0.6723744019138757</v>
-      </c>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D623" t="n">
-        <v>0.849608683998928</v>
-      </c>
-      <c r="E623" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D624" t="n">
-        <v>0.2679978036240204</v>
-      </c>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D625" t="n">
-        <v>0.849608683998928</v>
-      </c>
-      <c r="E625" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D626" t="n">
-        <v>0.8414768158670597</v>
-      </c>
-      <c r="E626" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D627" t="n">
-        <v>0.2371135863358766</v>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D628" t="n">
-        <v>0.8414768158670597</v>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D629" t="n">
-        <v>0.7012370556272995</v>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D630" t="n">
-        <v>0.2086099428731033</v>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>yeast4</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D631" t="n">
-        <v>0.7012370556272995</v>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D632" t="n">
-        <v>0.959375</v>
-      </c>
-      <c r="E632" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D633" t="n">
-        <v>0.5132715603303838</v>
-      </c>
-      <c r="E633" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D634" t="n">
-        <v>0.959375</v>
-      </c>
-      <c r="E634" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D635" t="n">
-        <v>0.9635416666666666</v>
-      </c>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D636" t="n">
-        <v>0.5534313725490196</v>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D637" t="n">
-        <v>0.9635416666666666</v>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D638" t="n">
-        <v>0.929861111111111</v>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D639" t="n">
-        <v>0.3256544689569666</v>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>yeast5</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D640" t="n">
-        <v>0.929861111111111</v>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D641" t="n">
-        <v>0.8768162680893858</v>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D642" t="n">
-        <v>0.2808458208458208</v>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>random_forest</t>
-        </is>
-      </c>
-      <c r="C643" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D643" t="n">
-        <v>0.8768162680893858</v>
-      </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D644" t="n">
-        <v>0.8502323282254078</v>
-      </c>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C645" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D645" t="n">
-        <v>0.2063312669274394</v>
-      </c>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>decision_tree</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D646" t="n">
-        <v>0.8502323282254078</v>
-      </c>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>balanced_accuracy</t>
-        </is>
-      </c>
-      <c r="D647" t="n">
-        <v>0.8756991153459355</v>
-      </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="D648" t="n">
-        <v>0.2132124916426483</v>
-      </c>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>umce</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>yeast6</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>naive_bayes</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>auc_roc</t>
-        </is>
-      </c>
-      <c r="D649" t="n">
-        <v>0.8756991153459355</v>
-      </c>
-      <c r="E649" t="inlineStr">
         <is>
           <t>umce</t>
         </is>

--- a/flatten.xlsx
+++ b/flatten.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Desktop\Uczenie Maszynowe\Machine-learning-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D917A1-104F-4519-9CAE-685D5F3BF9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00893107-75BF-444E-8330-D00A29F4A56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="31">
   <si>
     <t>dataset</t>
   </si>
@@ -105,6 +109,15 @@
   <si>
     <t>umce</t>
   </si>
+  <si>
+    <t>Etykiety wierszy</t>
+  </si>
+  <si>
+    <t>Suma końcowa</t>
+  </si>
+  <si>
+    <t>Średnia z value</t>
+  </si>
 </sst>
 </file>
 
@@ -159,10 +172,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -179,6 +203,4096 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paweł Pelar" refreshedDate="45096.47726446759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="540" xr:uid="{0398C9CC-8A64-4BF4-87BC-00288298863C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E541" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="dataset" numFmtId="0">
+      <sharedItems count="12">
+        <s v="ecoli-0-1-4-7_vs_5-6"/>
+        <s v="ecoli-0-3-4-7_vs_5-6"/>
+        <s v="ecoli1"/>
+        <s v="ecoli2"/>
+        <s v="ecoli3"/>
+        <s v="glass2"/>
+        <s v="yeast-0-2-5-7-9_vs_3-6-8"/>
+        <s v="yeast-0-3-5-9_vs_7-8"/>
+        <s v="yeast-0-5-6-7-9_vs_4"/>
+        <s v="yeast4"/>
+        <s v="yeast5"/>
+        <s v="yeast6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="model" numFmtId="0">
+      <sharedItems count="3">
+        <s v="random_forest"/>
+        <s v="decision_tree"/>
+        <s v="naive_bayes"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="metric" numFmtId="0">
+      <sharedItems count="3">
+        <s v="auc_roc"/>
+        <s v="balanced_accuracy"/>
+        <s v="f1_score"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1714285714285714" maxValue="0.97770897832817349"/>
+    </cacheField>
+    <cacheField name="method" numFmtId="0">
+      <sharedItems count="5">
+        <s v="adasyn"/>
+        <s v="smote"/>
+        <s v="oversampling"/>
+        <s v="undersampling"/>
+        <s v="umce"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="540">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.80081967213114746"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.79465891062929672"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.77297726070861972"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.91139685476410714"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.90951074108335894"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.62964333436118824"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.87944365438483074"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.78400247791424271"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.67125242404654162"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.85349296045757017"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.82175287356321847"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.53712406015037595"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.73435601884633428"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.66970278482374135"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.83140578177331226"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.62564102564102564"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.68717948717948718"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.64153846153846161"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.69651933701657465"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.73854511970534076"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.52039594843462245"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.67789960116972137"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.58168595871186057"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.52953840845145184"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.70198379370411845"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.62469057173074527"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.51550819646634305"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.63828104270038355"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.62815055993693791"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.545940358540003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.89088932141484045"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.89400591118800465"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.79965277777777788"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.78156026061109118"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.77584641009374444"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.64203546828555158"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.91374933897408783"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.88434690639873081"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.90549973558963526"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.90568917668825166"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.81942645698427385"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.74583718778908425"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.91123680241327309"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.83001508295625948"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.71421568627450971"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.93132832080200489"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.91024436090225558"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.62512531328320819"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.83407103825136608"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.76060109289617484"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.85546448087431703"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.61698717948717952"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.65544871794871795"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.62358974358974373"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.91602209944751378"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.91381215469613275"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.52983425414364638"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.73020783564261826"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.68960821786908733"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.56254180602006687"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.74185307017543867"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.7399013157894736"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.49586622807017539"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.65706244974537653"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.66784556906508119"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.55057747130917856"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.93645833333333339"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.90104166666666663"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.80694444444444446"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.85467605297697169"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.84708507338026495"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.65353895716501609"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.88952934955050245"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.86800634584875724"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.87329455314648341"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.84546716003700284"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.82863089731729878"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.65744680851063841"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.88815987933634977"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.86674208144796394"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.65241327300150831"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.89082080200501257"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.84865288220551383"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.58101503759398498"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.76781420765027319"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.73221311475409823"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.81885245901639325"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.54814102564102574"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.67115384615384621"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.59878205128205131"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.89944751381215471"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.89723756906077345"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.51160220994475147"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.62263497372193022"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.59212852365026269"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.53730291447682743"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.66633771929824559"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.67906798245614042"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.48748903508771929"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.5796203796203796"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.62772471431008015"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.52825223556930867"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.85659722222222212"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.82916666666666661"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.73298611111111112"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.7790215964682019"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.74660303066459843"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.61698007397685239"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.78"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.62"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.84000000000000008"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.83999999999999986"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.54"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.89624999999999999"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.88291666666666657"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.77374999999999994"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.88545454545454538"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.81727272727272715"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.64272727272727281"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.94285714285714284"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.8571428571428571"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.54285714285714293"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.71666666666666656"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.67500000000000004"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.75833333333333341"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.90973684210526318"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.87921052631578933"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.74473684210526314"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.73000000000000009"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.64000000000000012"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.66"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.7936363636363637"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.75727272727272732"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.56999999999999995"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.8418181818181818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.82363636363636361"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.66909090909090907"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.97638888888888897"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.96388888888888891"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.97638888888888897"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.8571428571428571"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.78571428571428581"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.65714285714285714"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.88777895293495512"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.86288736118455867"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.61674775251189851"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.89476410730804812"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.866022201665125"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.61347826086956514"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.90297699849170421"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.89022624434389142"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.85662518853695313"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.91199475962633869"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.88386192754613813"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.68594782410571897"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.893423106947697"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.86651834504293535"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.80314988290398115"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.7483974358974359"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.73775641025641026"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.64128205128205129"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.89932247746437921"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.91522099447513816"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.89792817679558001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.75059245102723371"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.71407071189679883"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.61561634018155753"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.80428528708133962"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.78914274322169065"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.67237440191387565"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.84960868399892797"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.84147681586705969"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.70123705562729954"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.95937499999999998"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.96354166666666663"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.92986111111111103"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.87681626808938584"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.85023232822540784"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.87569911534593547"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.80081967213114758"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.79465891062929672"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.77297726070861972"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.91139685476410737"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.90951074108335894"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.62964333436118824"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.87944365438483096"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.7840024779142426"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.67125242404654173"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.85349296045757017"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.82175287356321847"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.53712406015037595"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.73435601884633417"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.66970278482374135"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.83140578177331226"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.62564102564102564"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.68717948717948718"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.6415384615384615"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.69651933701657465"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.73854511970534076"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.52039594843462245"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.67789960116972148"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.58168595871186068"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.52953840845145195"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.70198379370411834"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.62469057173074538"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.51550819646634316"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.63828104270038355"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.62815055993693791"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.545940358540003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.89088932141484045"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.89400591118800465"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.79965277777777766"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.78156026061109118"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.77584641009374444"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.64203546828555158"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.91374933897408783"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.88434690639873081"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.90549973558963526"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.90568917668825155"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.81942645698427385"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.74583718778908425"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.91123680241327309"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.83001508295625936"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.71421568627450971"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.93132832080200489"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.91024436090225558"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.62512531328320797"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.83407103825136608"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.76060109289617484"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.85546448087431703"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.61698717948717952"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.65544871794871795"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.62358974358974373"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.91602209944751378"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.91381215469613264"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.52983425414364638"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.73020783564261826"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.68960821786908744"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.56254180602006687"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.74185307017543856"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.73990131578947371"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.49586622807017539"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.65706244974537653"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.6678455690650813"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.55057747130917867"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.93645833333333339"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.90104166666666663"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.80694444444444446"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.85467605297697169"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.84708507338026495"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.65353895716501609"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.88952934955050245"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.86800634584875724"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.87329455314648341"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.84546716003700284"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.82863089731729878"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.65744680851063841"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.88815987933634977"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.86674208144796372"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.65241327300150831"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.89082080200501257"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.84865288220551371"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.58101503759398498"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.76781420765027319"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.73221311475409834"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.81885245901639325"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.54814102564102574"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.67115384615384621"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.59878205128205131"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.89944751381215471"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.89723756906077357"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.51160220994475147"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.62263497372193022"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.59212852365026281"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.53730291447682743"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.66633771929824559"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.67906798245614031"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.48748903508771929"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.5796203796203796"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.62772471431008015"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.52825223556930867"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.85659722222222212"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.82916666666666683"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.73298611111111112"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.7790215964682019"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.74660303066459843"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.61698007397685228"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.78"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.62"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.84000000000000008"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.83999999999999986"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.54"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.89624999999999999"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.88291666666666657"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.77374999999999994"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.88545454545454549"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.81727272727272715"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.64272727272727281"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.94285714285714284"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.8571428571428571"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.54285714285714282"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.71666666666666656"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.67500000000000004"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.7583333333333333"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.90973684210526318"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.87921052631578944"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.74473684210526314"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.73000000000000009"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.64"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.66"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.7936363636363637"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.75727272727272743"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.56999999999999995"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.8418181818181818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.82363636363636361"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.66909090909090907"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.97638888888888897"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.96388888888888891"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.97638888888888897"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.8571428571428571"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.7857142857142857"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.65714285714285714"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.88777895293495512"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.86288736118455844"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.61674775251189851"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.89476410730804812"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.866022201665125"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.61347826086956514"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.90297699849170421"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.89022624434389142"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.85662518853695313"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.91199475962633869"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.88386192754613813"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.68594782410571886"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.893423106947697"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.86651834504293535"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.80314988290398115"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.7483974358974359"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.73775641025641026"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.64128205128205129"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.8993224774643791"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.91522099447513805"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.89792817679558001"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.75059245102723371"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.71407071189679883"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.61561634018155753"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.80428528708133962"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.78914274322169065"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.67237440191387565"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.84960868399892797"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.84147681586705969"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.70123705562729954"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.95937499999999998"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.96354166666666663"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.92986111111111103"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.87681626808938584"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.85023232822540784"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.87569911534593547"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.68554227501595921"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.69230729485264564"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.67931275379187261"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.88346034682759933"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.89073409933113956"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.70529637722973582"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.87160061603799333"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.74307190514950217"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.73922849039890703"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.80560942910487654"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.77112792700661414"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.68372708491889655"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.6176628523898835"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.49944940574921598"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.84697553817242111"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.40294005061754218"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.55166779881421779"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.70289337549508946"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.55396744476466642"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.64615392949256578"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.67114664625220599"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.53157527162870466"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.42020255355496777"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.67861114046882398"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.57586723407731566"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.45151431997378982"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.66033596121243732"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.39441080668121842"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.43278721555248839"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.67819763055097204"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.86220598572109708"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.87962881296412854"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.83429222002145187"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.69656877107864867"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.69118098812189488"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.7106642968937843"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.90336185403744229"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.86055404750102704"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.89366171571395348"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.88276430908969472"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.75983020450853755"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.80170647165251141"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.90786320031647139"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.81586413319158102"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.77901047294382597"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.92503569469196933"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.90315488233762176"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.72875771428280267"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.81061383982747037"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.68509957810390787"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.86794855619078182"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.40185128117331498"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.51196961235981198"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.67506606051129092"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.90910894984433066"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.90645329575035272"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.67902947732178531"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.64167288420744639"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.59799290635341584"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.69476267767923472"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.66028013810131569"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.67525234894118868"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.65204564081052574"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.4562182270913312"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.51226286447258973"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.68387644695280192"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.92984643613074547"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.88856068629486962"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.83960384342454319"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.81990497670648266"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.81359302085043672"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.74311184273694908"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.8709060239157328"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.84139765644527975"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.85591625059932619"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.80076885463933645"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.75746641842002838"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.74949958002196804"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.88185018277583427"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.8567290862288337"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.74018549594904282"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.87618969732285024"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.83119542711312222"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.70519498319949814"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.6885302489387588"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.63632223372925312"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.83741808659575678"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.21093117408906881"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.49571749887539363"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.65503788209098046"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.88693813400910204"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.88510327973217751"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.66985358080645108"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.40280298697105532"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.37950388707327309"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.68369768105179474"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.50271802242226893"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.54311949783071944"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.64939172185178451"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.26722594505438141"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.42655717444487362"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.6741125493400294"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.83196662812725253"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.79329982507632657"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.78993031971034133"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.68336424469575574"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.64192468183751195"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.7234812117409184"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.91344211344211357"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.81041181041181043"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.31111111111111123"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.85090909090909095"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.83959595959595956"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.89587438423645316"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.88131638970348658"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.81499061353177815"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.88375939849624063"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.83046113306982861"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.72796766451938866"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.94051282051282059"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.84527472527472525"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.1714285714285714"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.64999999999999991"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.61571428571428577"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.78539682539682543"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.90492759966444181"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.87855266684534961"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.808906882591093"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.73827751196172242"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.58384282384282371"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.69664502164502162"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.78920634920634924"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.73950937950937956"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.29400774663932561"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.84296744535134638"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.81657048923168174"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.50484472049689444"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.97770897832817349"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.96447368421052637"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.97770897832817349"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.85512820512820509"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.80288124156545204"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.73314954051796155"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.56942612942612947"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.53620823620823621"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.30158730158730163"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.64358974358974352"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.5938375350140056"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.33809523809523812"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.78509024403761263"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.78873619920131544"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.72303456295041157"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.80021045621045628"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.70085750775405953"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.37414946372967361"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.57495546558704447"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.55769230769230771"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.45469531316213241"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.29758513931888553"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.3019047619047619"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.20480119003478289"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.73293318314066291"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.69143860934204182"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.72647130647130642"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.36734754156799843"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.33681552490063132"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.35504495504495498"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.47499088531346589"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.42663999946741687"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.28923011529674297"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.26799780362402043"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.23711358633587659"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.2086099428731033"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.51327156033038379"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.55343137254901964"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.32565446895696659"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0.28084582084582083"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0.20633126692743939"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.2132124916426483"/>
+    <x v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{561397C5-C20D-41AE-A901-4CFAC5DDAD6E}" name="Tabela przestawna1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="58">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Średnia z value" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,11 +4579,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9C4F91-58A5-4AC8-9344-8568C922B99D}">
+  <dimension ref="A3:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.75237366519005622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.79332414783252003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.74247765054666504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.76561063787799988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.80161471796275985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.84841314586598504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.80850458690919236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.79332414783252003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.74247765054666504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.76561063787799999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.80161471796275985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.84841314586598504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.80850458690919214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.67047269990512859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.63915218754693082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.67402805556723278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.74421563172211169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.49425057560809266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.80071704908127561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.66021446512727311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.67279064931893495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.63641770671118736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.63303473022646906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.67241960904608555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.74249559676546062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.67958560384547229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.67279064931893495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.63641770671118736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.63303473022646906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.67241960904608555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.74249559676546062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.67958560384547229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.6350620967439482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.71589012628388327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.72780994524649101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.75321507668508392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.37621552915377188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.60217980635051216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.77596717257507619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.81740840145966376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.76602362857014539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.76946598578027503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0.82911180816145125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.86494462740562028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0.85749595738082596</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.81740840145966376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0.76602362857014539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.76946598578027503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0.82911180816145125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.86494462740562028</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.85749595738082618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.69308471480590161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0.65678425699545873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.65868267858011642</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0.77071014926816794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.52568699774935201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.85355949143641308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.72951843429746721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
